--- a/documents/templates/bulk-upload/MATERIAL_MASTER.xlsx
+++ b/documents/templates/bulk-upload/MATERIAL_MASTER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Projects\Balmer Lawrie\Test Server\documents\templates\bulk-upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\All Project\Balmer Lawrie\Server New\server\documents\templates\bulk-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C4D26D-54D0-4A82-ADEF-E6AB46A26576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD9ACE7-8FDB-4FC6-A017-C0366A5317B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="571">
   <si>
     <t>Pack Size</t>
   </si>
@@ -1715,6 +1715,27 @@
   </si>
   <si>
     <t>FG PKG Type</t>
+  </si>
+  <si>
+    <t>SMALLER SIZE STICKER</t>
+  </si>
+  <si>
+    <t>BIG SIZE STICKER</t>
+  </si>
+  <si>
+    <t>MEDIUM SIZE STICKER</t>
+  </si>
+  <si>
+    <t>PROTOMAC HLP-68</t>
+  </si>
+  <si>
+    <t>BL HP 75W90(SPL)             210 L</t>
+  </si>
+  <si>
+    <t>HP 75W90 (SPL)</t>
+  </si>
+  <si>
+    <t>Sticker Type Required</t>
   </si>
 </sst>
 </file>
@@ -2657,28 +2678,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J705"/>
+  <dimension ref="A1:K705"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="14.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="54">
       <c r="A1" s="3" t="s">
         <v>405</v>
       </c>
@@ -2709,8 +2731,11 @@
       <c r="J1" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="K1" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2741,8 +2766,11 @@
       <c r="J2" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1">
+      <c r="K2" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2773,8 +2801,11 @@
       <c r="J3" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+      <c r="K3" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2805,8 +2836,11 @@
       <c r="J4" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1">
+      <c r="K4" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -2837,8 +2871,11 @@
       <c r="J5" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="K5" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2869,8 +2906,11 @@
       <c r="J6" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1">
+      <c r="K6" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2901,8 +2941,11 @@
       <c r="J7" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
+      <c r="K7" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2933,8 +2976,11 @@
       <c r="J8" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1">
+      <c r="K8" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2965,8 +3011,11 @@
       <c r="J9" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="K9" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2997,8 +3046,11 @@
       <c r="J10" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1">
+      <c r="K10" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -3029,8 +3081,11 @@
       <c r="J11" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="K11" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3061,8 +3116,11 @@
       <c r="J12" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1">
+      <c r="K12" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -3093,8 +3151,11 @@
       <c r="J13" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="K13" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -3125,8 +3186,11 @@
       <c r="J14" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1">
+      <c r="K14" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -3157,8 +3221,11 @@
       <c r="J15" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="K15" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -3189,8 +3256,11 @@
       <c r="J16" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1">
+      <c r="K16" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -3221,8 +3291,11 @@
       <c r="J17" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1">
+      <c r="K17" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -3253,8 +3326,11 @@
       <c r="J18" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1">
+      <c r="K18" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -3285,8 +3361,11 @@
       <c r="J19" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1">
+      <c r="K19" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -3317,8 +3396,11 @@
       <c r="J20" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1">
+      <c r="K20" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -3349,8 +3431,11 @@
       <c r="J21" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1">
+      <c r="K21" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -3381,8 +3466,11 @@
       <c r="J22" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1">
+      <c r="K22" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -3413,8 +3501,11 @@
       <c r="J23" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1">
+      <c r="K23" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -3445,8 +3536,11 @@
       <c r="J24" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1">
+      <c r="K24" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -3477,8 +3571,11 @@
       <c r="J25" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1">
+      <c r="K25" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -3509,8 +3606,11 @@
       <c r="J26" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1">
+      <c r="K26" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -3541,8 +3641,11 @@
       <c r="J27" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="2" customFormat="1">
+      <c r="K27" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -3573,8 +3676,11 @@
       <c r="J28" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1">
+      <c r="K28" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -3605,8 +3711,11 @@
       <c r="J29" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1">
+      <c r="K29" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -3637,8 +3746,11 @@
       <c r="J30" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1">
+      <c r="K30" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -3669,8 +3781,11 @@
       <c r="J31" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1">
+      <c r="K31" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -3701,8 +3816,11 @@
       <c r="J32" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1">
+      <c r="K32" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -3733,8 +3851,11 @@
       <c r="J33" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1">
+      <c r="K33" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -3765,8 +3886,11 @@
       <c r="J34" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1">
+      <c r="K34" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -3797,8 +3921,11 @@
       <c r="J35" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1">
+      <c r="K35" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -3829,8 +3956,11 @@
       <c r="J36" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="2" customFormat="1">
+      <c r="K36" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -3861,8 +3991,11 @@
       <c r="J37" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" s="2" customFormat="1">
+      <c r="K37" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -3893,8 +4026,11 @@
       <c r="J38" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1">
+      <c r="K38" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -3925,8 +4061,11 @@
       <c r="J39" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1">
+      <c r="K39" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -3957,8 +4096,11 @@
       <c r="J40" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1">
+      <c r="K40" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -3989,8 +4131,11 @@
       <c r="J41" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" s="2" customFormat="1">
+      <c r="K41" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4021,8 +4166,11 @@
       <c r="J42" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" s="2" customFormat="1">
+      <c r="K42" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4053,8 +4201,11 @@
       <c r="J43" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1">
+      <c r="K43" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4085,8 +4236,11 @@
       <c r="J44" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1">
+      <c r="K44" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4117,8 +4271,11 @@
       <c r="J45" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" s="2" customFormat="1">
+      <c r="K45" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4144,13 +4301,16 @@
         <v>210</v>
       </c>
       <c r="I46" s="5">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1">
+      <c r="K46" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -4181,8 +4341,11 @@
       <c r="J47" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1">
+      <c r="K47" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -4213,8 +4376,11 @@
       <c r="J48" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1">
+      <c r="K48" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -4245,8 +4411,11 @@
       <c r="J49" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1">
+      <c r="K49" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -4272,13 +4441,16 @@
         <v>210</v>
       </c>
       <c r="I50" s="5">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1">
+      <c r="K50" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -4309,8 +4481,11 @@
       <c r="J51" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1">
+      <c r="K51" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -4341,8 +4516,11 @@
       <c r="J52" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1">
+      <c r="K52" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -4373,8 +4551,11 @@
       <c r="J53" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1">
+      <c r="K53" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -4405,8 +4586,11 @@
       <c r="J54" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1">
+      <c r="K54" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -4437,8 +4621,11 @@
       <c r="J55" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1">
+      <c r="K55" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -4469,8 +4656,11 @@
       <c r="J56" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1">
+      <c r="K56" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -4501,8 +4691,11 @@
       <c r="J57" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1">
+      <c r="K57" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -4533,8 +4726,11 @@
       <c r="J58" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1">
+      <c r="K58" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -4565,8 +4761,11 @@
       <c r="J59" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" s="2" customFormat="1">
+      <c r="K59" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -4597,8 +4796,11 @@
       <c r="J60" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" s="2" customFormat="1">
+      <c r="K60" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -4629,8 +4831,11 @@
       <c r="J61" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" s="2" customFormat="1">
+      <c r="K61" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -4661,8 +4866,11 @@
       <c r="J62" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1">
+      <c r="K62" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -4693,8 +4901,11 @@
       <c r="J63" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" s="2" customFormat="1">
+      <c r="K63" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -4725,8 +4936,11 @@
       <c r="J64" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" s="2" customFormat="1">
+      <c r="K64" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -4757,8 +4971,11 @@
       <c r="J65" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" s="2" customFormat="1">
+      <c r="K65" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -4789,8 +5006,11 @@
       <c r="J66" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" s="2" customFormat="1">
+      <c r="K66" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -4821,8 +5041,11 @@
       <c r="J67" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" s="2" customFormat="1">
+      <c r="K67" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -4853,8 +5076,11 @@
       <c r="J68" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" s="2" customFormat="1">
+      <c r="K68" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -4885,8 +5111,11 @@
       <c r="J69" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="2" customFormat="1">
+      <c r="K69" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -4917,8 +5146,11 @@
       <c r="J70" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" s="2" customFormat="1">
+      <c r="K70" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -4949,8 +5181,11 @@
       <c r="J71" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="2" customFormat="1">
+      <c r="K71" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -4981,8 +5216,11 @@
       <c r="J72" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="2" customFormat="1">
+      <c r="K72" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -5013,8 +5251,11 @@
       <c r="J73" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="2" customFormat="1">
+      <c r="K73" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -5045,8 +5286,11 @@
       <c r="J74" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" s="2" customFormat="1">
+      <c r="K74" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -5077,8 +5321,11 @@
       <c r="J75" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" s="2" customFormat="1">
+      <c r="K75" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -5109,8 +5356,11 @@
       <c r="J76" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="2" customFormat="1">
+      <c r="K76" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -5141,8 +5391,11 @@
       <c r="J77" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="2" customFormat="1">
+      <c r="K77" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -5173,8 +5426,11 @@
       <c r="J78" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" s="2" customFormat="1">
+      <c r="K78" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -5205,8 +5461,11 @@
       <c r="J79" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" s="2" customFormat="1">
+      <c r="K79" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -5237,8 +5496,11 @@
       <c r="J80" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="2" customFormat="1">
+      <c r="K80" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -5269,8 +5531,11 @@
       <c r="J81" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" s="2" customFormat="1">
+      <c r="K81" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -5301,8 +5566,11 @@
       <c r="J82" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" s="2" customFormat="1">
+      <c r="K82" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -5333,8 +5601,11 @@
       <c r="J83" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" s="2" customFormat="1">
+      <c r="K83" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -5365,8 +5636,11 @@
       <c r="J84" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" s="2" customFormat="1">
+      <c r="K84" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -5397,8 +5671,11 @@
       <c r="J85" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" s="2" customFormat="1">
+      <c r="K85" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -5429,8 +5706,11 @@
       <c r="J86" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" s="2" customFormat="1">
+      <c r="K86" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -5461,8 +5741,11 @@
       <c r="J87" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" s="2" customFormat="1">
+      <c r="K87" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -5493,8 +5776,11 @@
       <c r="J88" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" s="2" customFormat="1">
+      <c r="K88" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -5525,8 +5811,11 @@
       <c r="J89" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" s="2" customFormat="1">
+      <c r="K89" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -5557,8 +5846,11 @@
       <c r="J90" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" s="2" customFormat="1">
+      <c r="K90" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -5589,8 +5881,11 @@
       <c r="J91" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" s="2" customFormat="1">
+      <c r="K91" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -5621,8 +5916,11 @@
       <c r="J92" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" s="2" customFormat="1">
+      <c r="K92" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -5653,8 +5951,11 @@
       <c r="J93" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" s="2" customFormat="1">
+      <c r="K93" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -5685,8 +5986,11 @@
       <c r="J94" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" s="2" customFormat="1">
+      <c r="K94" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -5717,8 +6021,11 @@
       <c r="J95" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" s="2" customFormat="1">
+      <c r="K95" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -5749,8 +6056,11 @@
       <c r="J96" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" s="2" customFormat="1">
+      <c r="K96" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -5781,8 +6091,11 @@
       <c r="J97" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" s="2" customFormat="1">
+      <c r="K97" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -5813,8 +6126,11 @@
       <c r="J98" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" s="2" customFormat="1">
+      <c r="K98" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -5845,8 +6161,11 @@
       <c r="J99" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" s="2" customFormat="1">
+      <c r="K99" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -5877,8 +6196,11 @@
       <c r="J100" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" s="2" customFormat="1">
+      <c r="K100" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -5909,8 +6231,11 @@
       <c r="J101" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" s="2" customFormat="1">
+      <c r="K101" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -5941,8 +6266,11 @@
       <c r="J102" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" s="2" customFormat="1">
+      <c r="K102" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -5973,8 +6301,11 @@
       <c r="J103" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" s="2" customFormat="1">
+      <c r="K103" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -6005,8 +6336,11 @@
       <c r="J104" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" s="2" customFormat="1">
+      <c r="K104" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -6037,8 +6371,11 @@
       <c r="J105" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" s="2" customFormat="1">
+      <c r="K105" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -6069,8 +6406,11 @@
       <c r="J106" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" s="2" customFormat="1">
+      <c r="K106" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -6101,8 +6441,11 @@
       <c r="J107" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" s="2" customFormat="1">
+      <c r="K107" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -6133,8 +6476,11 @@
       <c r="J108" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" s="2" customFormat="1">
+      <c r="K108" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -6165,8 +6511,11 @@
       <c r="J109" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" s="2" customFormat="1">
+      <c r="K109" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -6197,8 +6546,11 @@
       <c r="J110" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" s="2" customFormat="1">
+      <c r="K110" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -6229,8 +6581,11 @@
       <c r="J111" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="2" customFormat="1">
+      <c r="K111" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -6261,8 +6616,11 @@
       <c r="J112" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" s="2" customFormat="1">
+      <c r="K112" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -6293,8 +6651,11 @@
       <c r="J113" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" s="2" customFormat="1">
+      <c r="K113" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -6325,8 +6686,11 @@
       <c r="J114" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" s="2" customFormat="1">
+      <c r="K114" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -6357,8 +6721,11 @@
       <c r="J115" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" s="2" customFormat="1">
+      <c r="K115" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -6389,8 +6756,11 @@
       <c r="J116" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" s="2" customFormat="1">
+      <c r="K116" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -6421,8 +6791,11 @@
       <c r="J117" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" s="2" customFormat="1">
+      <c r="K117" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -6453,8 +6826,11 @@
       <c r="J118" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" s="2" customFormat="1">
+      <c r="K118" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -6485,8 +6861,11 @@
       <c r="J119" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" s="2" customFormat="1">
+      <c r="K119" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -6517,8 +6896,11 @@
       <c r="J120" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" s="2" customFormat="1">
+      <c r="K120" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -6549,8 +6931,11 @@
       <c r="J121" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" s="2" customFormat="1">
+      <c r="K121" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -6581,8 +6966,11 @@
       <c r="J122" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" s="2" customFormat="1">
+      <c r="K122" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -6613,8 +7001,11 @@
       <c r="J123" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" s="2" customFormat="1">
+      <c r="K123" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -6645,8 +7036,11 @@
       <c r="J124" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" s="2" customFormat="1">
+      <c r="K124" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -6677,8 +7071,11 @@
       <c r="J125" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" s="2" customFormat="1">
+      <c r="K125" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -6709,8 +7106,11 @@
       <c r="J126" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" s="2" customFormat="1">
+      <c r="K126" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -6741,8 +7141,11 @@
       <c r="J127" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" s="2" customFormat="1">
+      <c r="K127" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -6773,8 +7176,11 @@
       <c r="J128" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" s="2" customFormat="1">
+      <c r="K128" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6805,8 +7211,11 @@
       <c r="J129" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" s="2" customFormat="1">
+      <c r="K129" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -6837,8 +7246,11 @@
       <c r="J130" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" s="2" customFormat="1">
+      <c r="K130" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -6869,8 +7281,11 @@
       <c r="J131" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" s="2" customFormat="1">
+      <c r="K131" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -6901,8 +7316,11 @@
       <c r="J132" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" s="2" customFormat="1">
+      <c r="K132" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -6933,8 +7351,11 @@
       <c r="J133" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" s="2" customFormat="1">
+      <c r="K133" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -6965,8 +7386,11 @@
       <c r="J134" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" s="2" customFormat="1">
+      <c r="K134" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -6997,8 +7421,11 @@
       <c r="J135" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" s="2" customFormat="1">
+      <c r="K135" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -7029,8 +7456,11 @@
       <c r="J136" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" s="2" customFormat="1">
+      <c r="K136" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -7061,8 +7491,11 @@
       <c r="J137" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" s="2" customFormat="1">
+      <c r="K137" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -7093,8 +7526,11 @@
       <c r="J138" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" s="2" customFormat="1">
+      <c r="K138" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -7125,8 +7561,11 @@
       <c r="J139" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" s="2" customFormat="1">
+      <c r="K139" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -7157,8 +7596,11 @@
       <c r="J140" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" s="2" customFormat="1">
+      <c r="K140" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -7189,8 +7631,11 @@
       <c r="J141" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" s="2" customFormat="1">
+      <c r="K141" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -7221,8 +7666,11 @@
       <c r="J142" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" s="2" customFormat="1">
+      <c r="K142" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -7253,8 +7701,11 @@
       <c r="J143" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" s="2" customFormat="1">
+      <c r="K143" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -7285,8 +7736,11 @@
       <c r="J144" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" s="2" customFormat="1">
+      <c r="K144" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -7317,8 +7771,11 @@
       <c r="J145" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" s="2" customFormat="1">
+      <c r="K145" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -7349,8 +7806,11 @@
       <c r="J146" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" s="2" customFormat="1">
+      <c r="K146" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -7381,8 +7841,11 @@
       <c r="J147" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" s="2" customFormat="1">
+      <c r="K147" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -7413,8 +7876,11 @@
       <c r="J148" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" s="2" customFormat="1">
+      <c r="K148" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -7445,8 +7911,11 @@
       <c r="J149" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" s="2" customFormat="1">
+      <c r="K149" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -7477,8 +7946,11 @@
       <c r="J150" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" s="2" customFormat="1">
+      <c r="K150" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -7509,8 +7981,11 @@
       <c r="J151" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" s="2" customFormat="1">
+      <c r="K151" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -7541,8 +8016,11 @@
       <c r="J152" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" s="2" customFormat="1">
+      <c r="K152" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -7573,8 +8051,11 @@
       <c r="J153" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" s="2" customFormat="1">
+      <c r="K153" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -7605,8 +8086,11 @@
       <c r="J154" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" s="2" customFormat="1">
+      <c r="K154" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -7637,8 +8121,11 @@
       <c r="J155" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" s="2" customFormat="1">
+      <c r="K155" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -7669,8 +8156,11 @@
       <c r="J156" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" s="2" customFormat="1">
+      <c r="K156" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -7701,8 +8191,11 @@
       <c r="J157" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" s="2" customFormat="1">
+      <c r="K157" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -7733,8 +8226,11 @@
       <c r="J158" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" s="2" customFormat="1">
+      <c r="K158" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -7765,8 +8261,11 @@
       <c r="J159" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" s="2" customFormat="1">
+      <c r="K159" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -7797,8 +8296,11 @@
       <c r="J160" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" s="2" customFormat="1">
+      <c r="K160" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -7829,8 +8331,11 @@
       <c r="J161" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" s="2" customFormat="1">
+      <c r="K161" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -7861,8 +8366,11 @@
       <c r="J162" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" s="2" customFormat="1">
+      <c r="K162" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -7893,8 +8401,11 @@
       <c r="J163" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" s="2" customFormat="1">
+      <c r="K163" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -7925,8 +8436,11 @@
       <c r="J164" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" s="2" customFormat="1">
+      <c r="K164" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -7957,8 +8471,11 @@
       <c r="J165" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" s="2" customFormat="1">
+      <c r="K165" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -7989,8 +8506,11 @@
       <c r="J166" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" s="2" customFormat="1">
+      <c r="K166" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -8021,8 +8541,11 @@
       <c r="J167" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" s="2" customFormat="1">
+      <c r="K167" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -8053,8 +8576,11 @@
       <c r="J168" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" s="2" customFormat="1">
+      <c r="K168" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -8085,8 +8611,11 @@
       <c r="J169" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" s="2" customFormat="1">
+      <c r="K169" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -8117,8 +8646,11 @@
       <c r="J170" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" s="2" customFormat="1">
+      <c r="K170" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -8149,8 +8681,11 @@
       <c r="J171" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" s="2" customFormat="1">
+      <c r="K171" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -8181,8 +8716,11 @@
       <c r="J172" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" s="2" customFormat="1">
+      <c r="K172" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -8213,8 +8751,11 @@
       <c r="J173" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" s="2" customFormat="1">
+      <c r="K173" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -8245,8 +8786,11 @@
       <c r="J174" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" s="2" customFormat="1">
+      <c r="K174" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -8277,8 +8821,11 @@
       <c r="J175" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" s="2" customFormat="1">
+      <c r="K175" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -8309,8 +8856,11 @@
       <c r="J176" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" s="2" customFormat="1">
+      <c r="K176" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -8341,8 +8891,11 @@
       <c r="J177" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" s="2" customFormat="1">
+      <c r="K177" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -8373,8 +8926,11 @@
       <c r="J178" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" s="2" customFormat="1">
+      <c r="K178" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -8405,8 +8961,11 @@
       <c r="J179" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" s="2" customFormat="1">
+      <c r="K179" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -8437,8 +8996,11 @@
       <c r="J180" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" s="2" customFormat="1">
+      <c r="K180" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -8469,8 +9031,11 @@
       <c r="J181" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" s="2" customFormat="1">
+      <c r="K181" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -8501,8 +9066,11 @@
       <c r="J182" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" s="2" customFormat="1">
+      <c r="K182" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -8533,8 +9101,11 @@
       <c r="J183" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" s="2" customFormat="1">
+      <c r="K183" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -8565,8 +9136,11 @@
       <c r="J184" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" s="2" customFormat="1">
+      <c r="K184" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -8597,8 +9171,11 @@
       <c r="J185" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" s="2" customFormat="1">
+      <c r="K185" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -8629,8 +9206,11 @@
       <c r="J186" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" s="2" customFormat="1">
+      <c r="K186" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -8661,8 +9241,11 @@
       <c r="J187" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" s="2" customFormat="1">
+      <c r="K187" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A188" s="6">
         <v>189</v>
       </c>
@@ -8693,8 +9276,11 @@
       <c r="J188" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" s="2" customFormat="1">
+      <c r="K188" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A189" s="6">
         <v>190</v>
       </c>
@@ -8725,8 +9311,11 @@
       <c r="J189" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" s="2" customFormat="1">
+      <c r="K189" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A190" s="6">
         <v>191</v>
       </c>
@@ -8757,8 +9346,11 @@
       <c r="J190" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" s="2" customFormat="1">
+      <c r="K190" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A191" s="6">
         <v>192</v>
       </c>
@@ -8789,8 +9381,11 @@
       <c r="J191" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" s="2" customFormat="1">
+      <c r="K191" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A192" s="6">
         <v>193</v>
       </c>
@@ -8821,8 +9416,11 @@
       <c r="J192" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" s="2" customFormat="1">
+      <c r="K192" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A193" s="6">
         <v>194</v>
       </c>
@@ -8853,8 +9451,11 @@
       <c r="J193" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" s="2" customFormat="1">
+      <c r="K193" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A194" s="6">
         <v>195</v>
       </c>
@@ -8885,8 +9486,11 @@
       <c r="J194" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" s="2" customFormat="1">
+      <c r="K194" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A195" s="6">
         <v>196</v>
       </c>
@@ -8917,8 +9521,11 @@
       <c r="J195" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" s="2" customFormat="1">
+      <c r="K195" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A196" s="6">
         <v>197</v>
       </c>
@@ -8949,8 +9556,11 @@
       <c r="J196" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" s="2" customFormat="1">
+      <c r="K196" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A197" s="6">
         <v>198</v>
       </c>
@@ -8981,8 +9591,11 @@
       <c r="J197" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" s="2" customFormat="1">
+      <c r="K197" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A198" s="6">
         <v>199</v>
       </c>
@@ -9013,8 +9626,11 @@
       <c r="J198" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" s="2" customFormat="1">
+      <c r="K198" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A199" s="6">
         <v>200</v>
       </c>
@@ -9045,8 +9661,11 @@
       <c r="J199" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" s="2" customFormat="1">
+      <c r="K199" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A200" s="6">
         <v>201</v>
       </c>
@@ -9077,8 +9696,11 @@
       <c r="J200" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" s="2" customFormat="1">
+      <c r="K200" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A201" s="6">
         <v>202</v>
       </c>
@@ -9109,8 +9731,11 @@
       <c r="J201" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" s="2" customFormat="1">
+      <c r="K201" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A202" s="6">
         <v>203</v>
       </c>
@@ -9141,8 +9766,11 @@
       <c r="J202" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" s="2" customFormat="1">
+      <c r="K202" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A203" s="6">
         <v>204</v>
       </c>
@@ -9173,8 +9801,11 @@
       <c r="J203" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" s="2" customFormat="1">
+      <c r="K203" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A204" s="6">
         <v>205</v>
       </c>
@@ -9205,8 +9836,11 @@
       <c r="J204" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" s="2" customFormat="1">
+      <c r="K204" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A205" s="6">
         <v>206</v>
       </c>
@@ -9237,8 +9871,11 @@
       <c r="J205" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" s="2" customFormat="1">
+      <c r="K205" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A206" s="6">
         <v>207</v>
       </c>
@@ -9269,8 +9906,11 @@
       <c r="J206" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" s="2" customFormat="1">
+      <c r="K206" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A207" s="6">
         <v>208</v>
       </c>
@@ -9301,8 +9941,11 @@
       <c r="J207" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" s="2" customFormat="1">
+      <c r="K207" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A208" s="6">
         <v>209</v>
       </c>
@@ -9333,8 +9976,11 @@
       <c r="J208" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" s="2" customFormat="1">
+      <c r="K208" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A209" s="6">
         <v>210</v>
       </c>
@@ -9365,8 +10011,11 @@
       <c r="J209" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" s="2" customFormat="1">
+      <c r="K209" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A210" s="6">
         <v>211</v>
       </c>
@@ -9397,8 +10046,11 @@
       <c r="J210" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" s="2" customFormat="1">
+      <c r="K210" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A211" s="6">
         <v>212</v>
       </c>
@@ -9429,8 +10081,11 @@
       <c r="J211" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" s="2" customFormat="1">
+      <c r="K211" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A212" s="6">
         <v>213</v>
       </c>
@@ -9461,8 +10116,11 @@
       <c r="J212" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" s="2" customFormat="1">
+      <c r="K212" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A213" s="6">
         <v>214</v>
       </c>
@@ -9493,8 +10151,11 @@
       <c r="J213" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" s="2" customFormat="1">
+      <c r="K213" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A214" s="6">
         <v>215</v>
       </c>
@@ -9525,8 +10186,11 @@
       <c r="J214" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" s="2" customFormat="1">
+      <c r="K214" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A215" s="6">
         <v>216</v>
       </c>
@@ -9557,8 +10221,11 @@
       <c r="J215" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" s="2" customFormat="1">
+      <c r="K215" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A216" s="6">
         <v>217</v>
       </c>
@@ -9589,8 +10256,11 @@
       <c r="J216" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" s="2" customFormat="1">
+      <c r="K216" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A217" s="6">
         <v>218</v>
       </c>
@@ -9621,8 +10291,11 @@
       <c r="J217" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" s="2" customFormat="1">
+      <c r="K217" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A218" s="6">
         <v>219</v>
       </c>
@@ -9653,8 +10326,11 @@
       <c r="J218" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" s="2" customFormat="1">
+      <c r="K218" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A219" s="6">
         <v>220</v>
       </c>
@@ -9685,8 +10361,11 @@
       <c r="J219" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" s="2" customFormat="1">
+      <c r="K219" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A220" s="6">
         <v>221</v>
       </c>
@@ -9717,8 +10396,11 @@
       <c r="J220" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" s="2" customFormat="1">
+      <c r="K220" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A221" s="6">
         <v>222</v>
       </c>
@@ -9749,8 +10431,11 @@
       <c r="J221" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" s="2" customFormat="1">
+      <c r="K221" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A222" s="6">
         <v>223</v>
       </c>
@@ -9781,8 +10466,11 @@
       <c r="J222" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" s="2" customFormat="1">
+      <c r="K222" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A223" s="6">
         <v>224</v>
       </c>
@@ -9813,8 +10501,11 @@
       <c r="J223" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" s="2" customFormat="1">
+      <c r="K223" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A224" s="6">
         <v>225</v>
       </c>
@@ -9845,8 +10536,11 @@
       <c r="J224" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" s="2" customFormat="1">
+      <c r="K224" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A225" s="6">
         <v>226</v>
       </c>
@@ -9877,8 +10571,11 @@
       <c r="J225" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" s="2" customFormat="1">
+      <c r="K225" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A226" s="6">
         <v>227</v>
       </c>
@@ -9909,8 +10606,11 @@
       <c r="J226" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" s="2" customFormat="1">
+      <c r="K226" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A227" s="6">
         <v>228</v>
       </c>
@@ -9941,8 +10641,11 @@
       <c r="J227" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" s="2" customFormat="1">
+      <c r="K227" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A228" s="6">
         <v>229</v>
       </c>
@@ -9973,8 +10676,11 @@
       <c r="J228" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" s="2" customFormat="1">
+      <c r="K228" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A229" s="6">
         <v>230</v>
       </c>
@@ -10005,8 +10711,11 @@
       <c r="J229" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" s="2" customFormat="1">
+      <c r="K229" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A230" s="6">
         <v>231</v>
       </c>
@@ -10037,8 +10746,11 @@
       <c r="J230" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" s="2" customFormat="1">
+      <c r="K230" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A231" s="6">
         <v>232</v>
       </c>
@@ -10069,8 +10781,11 @@
       <c r="J231" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" s="2" customFormat="1">
+      <c r="K231" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A232" s="6">
         <v>233</v>
       </c>
@@ -10101,8 +10816,11 @@
       <c r="J232" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" s="2" customFormat="1">
+      <c r="K232" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A233" s="6">
         <v>234</v>
       </c>
@@ -10133,8 +10851,11 @@
       <c r="J233" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" s="2" customFormat="1">
+      <c r="K233" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A234" s="6">
         <v>235</v>
       </c>
@@ -10165,8 +10886,11 @@
       <c r="J234" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" s="2" customFormat="1">
+      <c r="K234" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A235" s="6">
         <v>236</v>
       </c>
@@ -10197,8 +10921,11 @@
       <c r="J235" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" s="2" customFormat="1">
+      <c r="K235" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A236" s="6">
         <v>237</v>
       </c>
@@ -10229,8 +10956,11 @@
       <c r="J236" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" s="2" customFormat="1">
+      <c r="K236" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A237" s="6">
         <v>238</v>
       </c>
@@ -10261,8 +10991,11 @@
       <c r="J237" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" s="2" customFormat="1">
+      <c r="K237" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A238" s="6">
         <v>239</v>
       </c>
@@ -10293,8 +11026,11 @@
       <c r="J238" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" s="2" customFormat="1">
+      <c r="K238" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A239" s="6">
         <v>240</v>
       </c>
@@ -10325,8 +11061,11 @@
       <c r="J239" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" s="2" customFormat="1">
+      <c r="K239" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A240" s="6">
         <v>241</v>
       </c>
@@ -10357,8 +11096,11 @@
       <c r="J240" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" s="2" customFormat="1">
+      <c r="K240" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A241" s="6">
         <v>242</v>
       </c>
@@ -10389,8 +11131,11 @@
       <c r="J241" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" s="2" customFormat="1">
+      <c r="K241" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A242" s="6">
         <v>243</v>
       </c>
@@ -10421,8 +11166,11 @@
       <c r="J242" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" s="2" customFormat="1">
+      <c r="K242" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A243" s="6">
         <v>244</v>
       </c>
@@ -10453,8 +11201,11 @@
       <c r="J243" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" s="2" customFormat="1">
+      <c r="K243" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A244" s="6">
         <v>245</v>
       </c>
@@ -10485,8 +11236,11 @@
       <c r="J244" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" s="2" customFormat="1">
+      <c r="K244" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A245" s="6">
         <v>246</v>
       </c>
@@ -10517,8 +11271,11 @@
       <c r="J245" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" s="2" customFormat="1">
+      <c r="K245" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A246" s="6">
         <v>247</v>
       </c>
@@ -10549,8 +11306,11 @@
       <c r="J246" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" s="2" customFormat="1">
+      <c r="K246" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A247" s="6">
         <v>248</v>
       </c>
@@ -10581,8 +11341,11 @@
       <c r="J247" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" s="2" customFormat="1">
+      <c r="K247" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A248" s="6">
         <v>249</v>
       </c>
@@ -10613,8 +11376,11 @@
       <c r="J248" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" s="2" customFormat="1">
+      <c r="K248" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A249" s="6">
         <v>250</v>
       </c>
@@ -10645,8 +11411,11 @@
       <c r="J249" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" s="2" customFormat="1">
+      <c r="K249" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A250" s="6">
         <v>251</v>
       </c>
@@ -10677,8 +11446,11 @@
       <c r="J250" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" s="2" customFormat="1">
+      <c r="K250" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A251" s="6">
         <v>252</v>
       </c>
@@ -10709,8 +11481,11 @@
       <c r="J251" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" s="2" customFormat="1">
+      <c r="K251" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A252" s="6">
         <v>253</v>
       </c>
@@ -10741,8 +11516,11 @@
       <c r="J252" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" s="2" customFormat="1">
+      <c r="K252" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A253" s="6">
         <v>254</v>
       </c>
@@ -10773,8 +11551,11 @@
       <c r="J253" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" s="2" customFormat="1">
+      <c r="K253" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A254" s="6">
         <v>255</v>
       </c>
@@ -10805,8 +11586,11 @@
       <c r="J254" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" s="2" customFormat="1">
+      <c r="K254" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A255" s="6">
         <v>256</v>
       </c>
@@ -10837,8 +11621,11 @@
       <c r="J255" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" s="2" customFormat="1">
+      <c r="K255" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A256" s="6">
         <v>257</v>
       </c>
@@ -10869,8 +11656,11 @@
       <c r="J256" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" s="2" customFormat="1">
+      <c r="K256" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A257" s="6">
         <v>258</v>
       </c>
@@ -10901,8 +11691,11 @@
       <c r="J257" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" s="2" customFormat="1">
+      <c r="K257" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A258" s="6">
         <v>259</v>
       </c>
@@ -10933,8 +11726,11 @@
       <c r="J258" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" s="2" customFormat="1">
+      <c r="K258" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A259" s="6">
         <v>260</v>
       </c>
@@ -10965,8 +11761,11 @@
       <c r="J259" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" s="2" customFormat="1">
+      <c r="K259" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A260" s="6">
         <v>261</v>
       </c>
@@ -10997,8 +11796,11 @@
       <c r="J260" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" s="2" customFormat="1">
+      <c r="K260" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A261" s="6">
         <v>262</v>
       </c>
@@ -11024,13 +11826,16 @@
         <v>210</v>
       </c>
       <c r="I261" s="5">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J261" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" s="2" customFormat="1">
+      <c r="K261" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A262" s="6">
         <v>263</v>
       </c>
@@ -11061,8 +11866,11 @@
       <c r="J262" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" s="2" customFormat="1">
+      <c r="K262" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A263" s="6">
         <v>264</v>
       </c>
@@ -11088,13 +11896,16 @@
         <v>210</v>
       </c>
       <c r="I263" s="5">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J263" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" s="2" customFormat="1">
+      <c r="K263" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A264" s="6">
         <v>265</v>
       </c>
@@ -11120,13 +11931,16 @@
         <v>210</v>
       </c>
       <c r="I264" s="5">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J264" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" s="2" customFormat="1">
+      <c r="K264" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A265" s="6">
         <v>266</v>
       </c>
@@ -11152,13 +11966,16 @@
         <v>210</v>
       </c>
       <c r="I265" s="5">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="J265" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" s="2" customFormat="1">
+      <c r="K265" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A266" s="6">
         <v>267</v>
       </c>
@@ -11189,8 +12006,11 @@
       <c r="J266" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" s="2" customFormat="1">
+      <c r="K266" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A267" s="6">
         <v>268</v>
       </c>
@@ -11221,8 +12041,11 @@
       <c r="J267" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" s="2" customFormat="1">
+      <c r="K267" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A268" s="6">
         <v>269</v>
       </c>
@@ -11253,8 +12076,11 @@
       <c r="J268" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" s="2" customFormat="1">
+      <c r="K268" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A269" s="6">
         <v>270</v>
       </c>
@@ -11285,8 +12111,11 @@
       <c r="J269" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" s="2" customFormat="1">
+      <c r="K269" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A270" s="6">
         <v>271</v>
       </c>
@@ -11317,8 +12146,11 @@
       <c r="J270" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" s="2" customFormat="1">
+      <c r="K270" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A271" s="6">
         <v>272</v>
       </c>
@@ -11349,8 +12181,11 @@
       <c r="J271" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" s="2" customFormat="1">
+      <c r="K271" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A272" s="6">
         <v>273</v>
       </c>
@@ -11381,8 +12216,11 @@
       <c r="J272" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" s="2" customFormat="1">
+      <c r="K272" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A273" s="6">
         <v>274</v>
       </c>
@@ -11413,8 +12251,11 @@
       <c r="J273" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" s="2" customFormat="1">
+      <c r="K273" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A274" s="6">
         <v>275</v>
       </c>
@@ -11445,8 +12286,11 @@
       <c r="J274" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" s="2" customFormat="1">
+      <c r="K274" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A275" s="6">
         <v>276</v>
       </c>
@@ -11477,8 +12321,11 @@
       <c r="J275" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" s="2" customFormat="1">
+      <c r="K275" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A276" s="6">
         <v>277</v>
       </c>
@@ -11509,8 +12356,11 @@
       <c r="J276" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" s="2" customFormat="1">
+      <c r="K276" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A277" s="6">
         <v>278</v>
       </c>
@@ -11536,13 +12386,16 @@
         <v>210</v>
       </c>
       <c r="I277" s="5">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J277" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" s="2" customFormat="1">
+      <c r="K277" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A278" s="6">
         <v>279</v>
       </c>
@@ -11573,8 +12426,11 @@
       <c r="J278" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" s="2" customFormat="1">
+      <c r="K278" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A279" s="6">
         <v>280</v>
       </c>
@@ -11605,8 +12461,11 @@
       <c r="J279" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" s="2" customFormat="1">
+      <c r="K279" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A280" s="6">
         <v>281</v>
       </c>
@@ -11637,8 +12496,11 @@
       <c r="J280" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" s="2" customFormat="1">
+      <c r="K280" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A281" s="6">
         <v>282</v>
       </c>
@@ -11669,8 +12531,11 @@
       <c r="J281" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" s="2" customFormat="1">
+      <c r="K281" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A282" s="6">
         <v>283</v>
       </c>
@@ -11701,8 +12566,11 @@
       <c r="J282" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" s="2" customFormat="1">
+      <c r="K282" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A283" s="6">
         <v>284</v>
       </c>
@@ -11733,8 +12601,11 @@
       <c r="J283" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" s="2" customFormat="1">
+      <c r="K283" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A284" s="6">
         <v>285</v>
       </c>
@@ -11748,7 +12619,7 @@
         <v>287</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="F284" s="5" t="s">
         <v>557</v>
@@ -11760,13 +12631,16 @@
         <v>210</v>
       </c>
       <c r="I284" s="5">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J284" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" s="2" customFormat="1">
+      <c r="K284" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A285" s="6">
         <v>286</v>
       </c>
@@ -11797,8 +12671,11 @@
       <c r="J285" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" s="2" customFormat="1">
+      <c r="K285" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A286" s="6">
         <v>287</v>
       </c>
@@ -11829,8 +12706,11 @@
       <c r="J286" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" s="2" customFormat="1">
+      <c r="K286" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A287" s="6">
         <v>288</v>
       </c>
@@ -11861,8 +12741,11 @@
       <c r="J287" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" s="2" customFormat="1">
+      <c r="K287" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A288" s="6">
         <v>289</v>
       </c>
@@ -11893,8 +12776,11 @@
       <c r="J288" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" s="2" customFormat="1">
+      <c r="K288" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A289" s="6">
         <v>290</v>
       </c>
@@ -11925,8 +12811,11 @@
       <c r="J289" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" s="2" customFormat="1">
+      <c r="K289" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A290" s="6">
         <v>291</v>
       </c>
@@ -11957,8 +12846,11 @@
       <c r="J290" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" s="2" customFormat="1">
+      <c r="K290" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A291" s="6">
         <v>292</v>
       </c>
@@ -11989,8 +12881,11 @@
       <c r="J291" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" s="2" customFormat="1">
+      <c r="K291" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A292" s="6">
         <v>293</v>
       </c>
@@ -12021,8 +12916,11 @@
       <c r="J292" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" s="2" customFormat="1">
+      <c r="K292" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A293" s="6">
         <v>294</v>
       </c>
@@ -12053,8 +12951,11 @@
       <c r="J293" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" s="2" customFormat="1">
+      <c r="K293" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A294" s="6">
         <v>295</v>
       </c>
@@ -12085,8 +12986,11 @@
       <c r="J294" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" s="2" customFormat="1">
+      <c r="K294" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A295" s="6">
         <v>296</v>
       </c>
@@ -12117,8 +13021,11 @@
       <c r="J295" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" s="2" customFormat="1">
+      <c r="K295" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A296" s="6">
         <v>297</v>
       </c>
@@ -12149,8 +13056,11 @@
       <c r="J296" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" s="2" customFormat="1">
+      <c r="K296" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A297" s="6">
         <v>298</v>
       </c>
@@ -12181,8 +13091,11 @@
       <c r="J297" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" s="2" customFormat="1">
+      <c r="K297" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A298" s="6">
         <v>299</v>
       </c>
@@ -12213,8 +13126,11 @@
       <c r="J298" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" s="2" customFormat="1">
+      <c r="K298" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A299" s="6">
         <v>300</v>
       </c>
@@ -12245,8 +13161,11 @@
       <c r="J299" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" s="2" customFormat="1">
+      <c r="K299" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A300" s="6">
         <v>301</v>
       </c>
@@ -12277,8 +13196,11 @@
       <c r="J300" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" s="2" customFormat="1">
+      <c r="K300" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A301" s="6">
         <v>302</v>
       </c>
@@ -12309,8 +13231,11 @@
       <c r="J301" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" s="2" customFormat="1">
+      <c r="K301" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A302" s="6">
         <v>303</v>
       </c>
@@ -12341,8 +13266,11 @@
       <c r="J302" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" s="2" customFormat="1">
+      <c r="K302" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A303" s="6">
         <v>304</v>
       </c>
@@ -12368,13 +13296,16 @@
         <v>210</v>
       </c>
       <c r="I303" s="5">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J303" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" s="2" customFormat="1">
+      <c r="K303" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A304" s="6">
         <v>305</v>
       </c>
@@ -12405,8 +13336,11 @@
       <c r="J304" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" s="2" customFormat="1">
+      <c r="K304" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A305" s="6">
         <v>306</v>
       </c>
@@ -12437,8 +13371,11 @@
       <c r="J305" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" s="2" customFormat="1">
+      <c r="K305" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A306" s="6">
         <v>307</v>
       </c>
@@ -12469,8 +13406,11 @@
       <c r="J306" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" s="2" customFormat="1">
+      <c r="K306" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A307" s="6">
         <v>308</v>
       </c>
@@ -12501,8 +13441,11 @@
       <c r="J307" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" s="2" customFormat="1">
+      <c r="K307" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A308" s="6">
         <v>309</v>
       </c>
@@ -12533,8 +13476,11 @@
       <c r="J308" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" s="2" customFormat="1">
+      <c r="K308" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A309" s="6">
         <v>310</v>
       </c>
@@ -12565,8 +13511,11 @@
       <c r="J309" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" s="2" customFormat="1">
+      <c r="K309" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A310" s="6">
         <v>311</v>
       </c>
@@ -12597,8 +13546,11 @@
       <c r="J310" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" s="2" customFormat="1">
+      <c r="K310" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A311" s="6">
         <v>312</v>
       </c>
@@ -12629,8 +13581,11 @@
       <c r="J311" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" s="2" customFormat="1">
+      <c r="K311" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A312" s="6">
         <v>313</v>
       </c>
@@ -12661,8 +13616,11 @@
       <c r="J312" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" s="2" customFormat="1">
+      <c r="K312" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A313" s="6">
         <v>314</v>
       </c>
@@ -12693,8 +13651,11 @@
       <c r="J313" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" s="2" customFormat="1">
+      <c r="K313" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A314" s="6">
         <v>315</v>
       </c>
@@ -12725,8 +13686,11 @@
       <c r="J314" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" s="2" customFormat="1">
+      <c r="K314" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A315" s="6">
         <v>316</v>
       </c>
@@ -12757,8 +13721,11 @@
       <c r="J315" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" s="2" customFormat="1">
+      <c r="K315" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A316" s="6">
         <v>317</v>
       </c>
@@ -12789,8 +13756,11 @@
       <c r="J316" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" s="2" customFormat="1">
+      <c r="K316" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A317" s="6">
         <v>318</v>
       </c>
@@ -12821,8 +13791,11 @@
       <c r="J317" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" s="2" customFormat="1">
+      <c r="K317" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A318" s="6">
         <v>319</v>
       </c>
@@ -12853,8 +13826,11 @@
       <c r="J318" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" s="2" customFormat="1">
+      <c r="K318" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A319" s="6">
         <v>320</v>
       </c>
@@ -12885,8 +13861,11 @@
       <c r="J319" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" s="2" customFormat="1">
+      <c r="K319" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A320" s="6">
         <v>321</v>
       </c>
@@ -12917,8 +13896,11 @@
       <c r="J320" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" s="2" customFormat="1">
+      <c r="K320" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A321" s="6">
         <v>322</v>
       </c>
@@ -12949,8 +13931,11 @@
       <c r="J321" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" s="2" customFormat="1">
+      <c r="K321" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A322" s="6">
         <v>323</v>
       </c>
@@ -12981,8 +13966,11 @@
       <c r="J322" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" s="2" customFormat="1">
+      <c r="K322" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A323" s="6">
         <v>324</v>
       </c>
@@ -13013,8 +14001,11 @@
       <c r="J323" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" s="2" customFormat="1">
+      <c r="K323" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A324" s="6">
         <v>325</v>
       </c>
@@ -13045,8 +14036,11 @@
       <c r="J324" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" s="2" customFormat="1">
+      <c r="K324" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A325" s="6">
         <v>326</v>
       </c>
@@ -13077,8 +14071,11 @@
       <c r="J325" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" s="2" customFormat="1">
+      <c r="K325" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A326" s="6">
         <v>327</v>
       </c>
@@ -13109,8 +14106,11 @@
       <c r="J326" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" s="2" customFormat="1">
+      <c r="K326" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A327" s="6">
         <v>328</v>
       </c>
@@ -13141,8 +14141,11 @@
       <c r="J327" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" s="2" customFormat="1">
+      <c r="K327" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A328" s="6">
         <v>329</v>
       </c>
@@ -13173,8 +14176,11 @@
       <c r="J328" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" s="2" customFormat="1">
+      <c r="K328" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A329" s="6">
         <v>330</v>
       </c>
@@ -13205,8 +14211,11 @@
       <c r="J329" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" s="2" customFormat="1">
+      <c r="K329" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A330" s="6">
         <v>331</v>
       </c>
@@ -13237,8 +14246,11 @@
       <c r="J330" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" s="2" customFormat="1">
+      <c r="K330" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A331" s="6">
         <v>332</v>
       </c>
@@ -13269,8 +14281,11 @@
       <c r="J331" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" s="2" customFormat="1">
+      <c r="K331" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A332" s="6">
         <v>333</v>
       </c>
@@ -13301,8 +14316,11 @@
       <c r="J332" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" s="2" customFormat="1">
+      <c r="K332" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A333" s="6">
         <v>334</v>
       </c>
@@ -13333,8 +14351,11 @@
       <c r="J333" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" s="2" customFormat="1">
+      <c r="K333" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A334" s="6">
         <v>335</v>
       </c>
@@ -13365,8 +14386,11 @@
       <c r="J334" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" s="2" customFormat="1">
+      <c r="K334" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A335" s="6">
         <v>336</v>
       </c>
@@ -13397,8 +14421,11 @@
       <c r="J335" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" s="2" customFormat="1">
+      <c r="K335" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A336" s="6">
         <v>337</v>
       </c>
@@ -13429,8 +14456,11 @@
       <c r="J336" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" s="2" customFormat="1">
+      <c r="K336" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A337" s="6">
         <v>338</v>
       </c>
@@ -13461,8 +14491,11 @@
       <c r="J337" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" s="2" customFormat="1">
+      <c r="K337" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A338" s="6">
         <v>339</v>
       </c>
@@ -13493,8 +14526,11 @@
       <c r="J338" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" s="2" customFormat="1">
+      <c r="K338" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A339" s="6">
         <v>340</v>
       </c>
@@ -13525,8 +14561,11 @@
       <c r="J339" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" s="2" customFormat="1">
+      <c r="K339" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A340" s="6">
         <v>341</v>
       </c>
@@ -13557,8 +14596,11 @@
       <c r="J340" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" s="2" customFormat="1">
+      <c r="K340" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A341" s="6">
         <v>342</v>
       </c>
@@ -13589,8 +14631,11 @@
       <c r="J341" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" s="2" customFormat="1">
+      <c r="K341" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A342" s="6">
         <v>343</v>
       </c>
@@ -13621,8 +14666,11 @@
       <c r="J342" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" s="2" customFormat="1">
+      <c r="K342" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A343" s="6">
         <v>344</v>
       </c>
@@ -13653,8 +14701,11 @@
       <c r="J343" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" s="2" customFormat="1">
+      <c r="K343" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A344" s="6">
         <v>345</v>
       </c>
@@ -13685,8 +14736,11 @@
       <c r="J344" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" s="2" customFormat="1">
+      <c r="K344" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A345" s="6">
         <v>346</v>
       </c>
@@ -13717,8 +14771,11 @@
       <c r="J345" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" s="2" customFormat="1">
+      <c r="K345" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A346" s="6">
         <v>347</v>
       </c>
@@ -13749,8 +14806,11 @@
       <c r="J346" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" s="2" customFormat="1">
+      <c r="K346" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A347" s="6">
         <v>348</v>
       </c>
@@ -13781,8 +14841,11 @@
       <c r="J347" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" s="2" customFormat="1">
+      <c r="K347" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A348" s="6">
         <v>349</v>
       </c>
@@ -13813,8 +14876,11 @@
       <c r="J348" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" s="2" customFormat="1">
+      <c r="K348" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A349" s="6">
         <v>350</v>
       </c>
@@ -13845,8 +14911,11 @@
       <c r="J349" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" s="2" customFormat="1">
+      <c r="K349" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A350" s="6">
         <v>351</v>
       </c>
@@ -13877,8 +14946,11 @@
       <c r="J350" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" s="2" customFormat="1">
+      <c r="K350" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A351" s="6">
         <v>352</v>
       </c>
@@ -13909,8 +14981,11 @@
       <c r="J351" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" s="2" customFormat="1">
+      <c r="K351" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A352" s="6">
         <v>353</v>
       </c>
@@ -13941,8 +15016,11 @@
       <c r="J352" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" s="2" customFormat="1">
+      <c r="K352" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A353" s="6">
         <v>354</v>
       </c>
@@ -13973,8 +15051,11 @@
       <c r="J353" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" s="2" customFormat="1">
+      <c r="K353" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A354" s="6">
         <v>355</v>
       </c>
@@ -14005,8 +15086,11 @@
       <c r="J354" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" s="2" customFormat="1">
+      <c r="K354" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A355" s="6">
         <v>356</v>
       </c>
@@ -14037,8 +15121,11 @@
       <c r="J355" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" s="2" customFormat="1">
+      <c r="K355" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A356" s="6">
         <v>357</v>
       </c>
@@ -14069,8 +15156,11 @@
       <c r="J356" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" s="2" customFormat="1">
+      <c r="K356" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A357" s="6">
         <v>358</v>
       </c>
@@ -14101,8 +15191,11 @@
       <c r="J357" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" s="2" customFormat="1">
+      <c r="K357" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A358" s="6">
         <v>359</v>
       </c>
@@ -14133,8 +15226,11 @@
       <c r="J358" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" s="2" customFormat="1">
+      <c r="K358" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A359" s="6">
         <v>360</v>
       </c>
@@ -14165,8 +15261,11 @@
       <c r="J359" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" s="2" customFormat="1">
+      <c r="K359" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A360" s="6">
         <v>361</v>
       </c>
@@ -14197,8 +15296,11 @@
       <c r="J360" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" s="2" customFormat="1">
+      <c r="K360" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A361" s="6">
         <v>362</v>
       </c>
@@ -14229,8 +15331,11 @@
       <c r="J361" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" s="2" customFormat="1">
+      <c r="K361" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A362" s="6">
         <v>363</v>
       </c>
@@ -14261,8 +15366,11 @@
       <c r="J362" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" s="2" customFormat="1">
+      <c r="K362" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A363" s="6">
         <v>364</v>
       </c>
@@ -14293,8 +15401,11 @@
       <c r="J363" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" s="2" customFormat="1">
+      <c r="K363" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A364" s="6">
         <v>365</v>
       </c>
@@ -14325,8 +15436,11 @@
       <c r="J364" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" s="2" customFormat="1">
+      <c r="K364" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A365" s="6">
         <v>366</v>
       </c>
@@ -14357,8 +15471,11 @@
       <c r="J365" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" s="2" customFormat="1">
+      <c r="K365" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A366" s="6">
         <v>367</v>
       </c>
@@ -14389,8 +15506,11 @@
       <c r="J366" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" s="2" customFormat="1">
+      <c r="K366" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A367" s="6">
         <v>368</v>
       </c>
@@ -14421,8 +15541,11 @@
       <c r="J367" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" s="2" customFormat="1">
+      <c r="K367" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A368" s="6">
         <v>369</v>
       </c>
@@ -14453,8 +15576,11 @@
       <c r="J368" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" s="2" customFormat="1">
+      <c r="K368" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A369" s="6">
         <v>370</v>
       </c>
@@ -14485,8 +15611,11 @@
       <c r="J369" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" s="2" customFormat="1">
+      <c r="K369" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A370" s="6">
         <v>371</v>
       </c>
@@ -14517,8 +15646,11 @@
       <c r="J370" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" s="2" customFormat="1">
+      <c r="K370" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A371" s="6">
         <v>372</v>
       </c>
@@ -14549,8 +15681,11 @@
       <c r="J371" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" s="2" customFormat="1">
+      <c r="K371" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A372" s="6">
         <v>373</v>
       </c>
@@ -14581,8 +15716,11 @@
       <c r="J372" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" s="2" customFormat="1">
+      <c r="K372" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A373" s="6">
         <v>374</v>
       </c>
@@ -14613,8 +15751,11 @@
       <c r="J373" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" s="2" customFormat="1">
+      <c r="K373" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A374" s="6">
         <v>375</v>
       </c>
@@ -14645,8 +15786,11 @@
       <c r="J374" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" s="2" customFormat="1">
+      <c r="K374" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A375" s="6">
         <v>376</v>
       </c>
@@ -14677,8 +15821,11 @@
       <c r="J375" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" s="2" customFormat="1">
+      <c r="K375" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A376" s="6">
         <v>377</v>
       </c>
@@ -14709,8 +15856,11 @@
       <c r="J376" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" s="2" customFormat="1">
+      <c r="K376" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A377" s="6">
         <v>378</v>
       </c>
@@ -14741,8 +15891,11 @@
       <c r="J377" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" s="2" customFormat="1">
+      <c r="K377" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A378" s="6">
         <v>379</v>
       </c>
@@ -14773,8 +15926,11 @@
       <c r="J378" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" s="2" customFormat="1">
+      <c r="K378" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A379" s="6">
         <v>380</v>
       </c>
@@ -14805,8 +15961,11 @@
       <c r="J379" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" s="2" customFormat="1">
+      <c r="K379" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A380" s="6">
         <v>381</v>
       </c>
@@ -14837,8 +15996,11 @@
       <c r="J380" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" s="2" customFormat="1">
+      <c r="K380" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A381" s="6">
         <v>382</v>
       </c>
@@ -14869,8 +16031,11 @@
       <c r="J381" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" s="2" customFormat="1">
+      <c r="K381" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A382" s="6">
         <v>383</v>
       </c>
@@ -14901,8 +16066,11 @@
       <c r="J382" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" s="2" customFormat="1">
+      <c r="K382" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A383" s="6">
         <v>384</v>
       </c>
@@ -14933,8 +16101,11 @@
       <c r="J383" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" s="2" customFormat="1">
+      <c r="K383" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A384" s="6">
         <v>385</v>
       </c>
@@ -14965,8 +16136,11 @@
       <c r="J384" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" s="2" customFormat="1">
+      <c r="K384" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A385" s="6">
         <v>386</v>
       </c>
@@ -14997,8 +16171,11 @@
       <c r="J385" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" s="2" customFormat="1">
+      <c r="K385" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A386" s="6">
         <v>387</v>
       </c>
@@ -15029,8 +16206,11 @@
       <c r="J386" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" s="2" customFormat="1">
+      <c r="K386" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A387" s="6">
         <v>388</v>
       </c>
@@ -15061,8 +16241,11 @@
       <c r="J387" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" s="2" customFormat="1">
+      <c r="K387" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A388" s="6">
         <v>389</v>
       </c>
@@ -15093,8 +16276,11 @@
       <c r="J388" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" s="2" customFormat="1">
+      <c r="K388" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A389" s="6">
         <v>390</v>
       </c>
@@ -15125,8 +16311,11 @@
       <c r="J389" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" s="2" customFormat="1">
+      <c r="K389" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A390" s="6">
         <v>391</v>
       </c>
@@ -15157,8 +16346,11 @@
       <c r="J390" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" s="2" customFormat="1">
+      <c r="K390" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A391" s="6">
         <v>392</v>
       </c>
@@ -15189,8 +16381,11 @@
       <c r="J391" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" s="2" customFormat="1">
+      <c r="K391" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A392" s="6">
         <v>393</v>
       </c>
@@ -15221,8 +16416,11 @@
       <c r="J392" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" s="2" customFormat="1">
+      <c r="K392" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A393" s="6">
         <v>394</v>
       </c>
@@ -15253,8 +16451,11 @@
       <c r="J393" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" s="2" customFormat="1">
+      <c r="K393" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A394" s="6">
         <v>395</v>
       </c>
@@ -15285,8 +16486,11 @@
       <c r="J394" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" s="2" customFormat="1">
+      <c r="K394" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A395" s="6">
         <v>396</v>
       </c>
@@ -15317,8 +16521,11 @@
       <c r="J395" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" s="2" customFormat="1">
+      <c r="K395" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A396" s="6">
         <v>397</v>
       </c>
@@ -15349,8 +16556,11 @@
       <c r="J396" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" s="2" customFormat="1">
+      <c r="K396" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A397" s="6">
         <v>400</v>
       </c>
@@ -15381,8 +16591,11 @@
       <c r="J397" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" s="2" customFormat="1">
+      <c r="K397" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A398" s="6">
         <v>401</v>
       </c>
@@ -15413,8 +16626,11 @@
       <c r="J398" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" s="2" customFormat="1">
+      <c r="K398" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A399" s="6">
         <v>402</v>
       </c>
@@ -15445,8 +16661,11 @@
       <c r="J399" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" s="2" customFormat="1">
+      <c r="K399" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A400" s="6">
         <v>403</v>
       </c>
@@ -15477,8 +16696,11 @@
       <c r="J400" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" s="2" customFormat="1">
+      <c r="K400" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" s="2" customFormat="1" ht="40.5">
       <c r="A401" s="6">
         <v>404</v>
       </c>
@@ -15509,20 +16731,46 @@
       <c r="J401" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="402" spans="1:10">
-      <c r="A402" s="7"/>
-      <c r="B402" s="9"/>
-      <c r="C402" s="7"/>
-      <c r="D402"/>
-      <c r="E402" s="9"/>
-      <c r="F402" s="9"/>
-      <c r="G402" s="9"/>
-      <c r="H402" s="9"/>
-      <c r="I402" s="9"/>
-      <c r="J402" s="9"/>
-    </row>
-    <row r="403" spans="1:10">
+      <c r="K401" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="40.5">
+      <c r="A402" s="6">
+        <v>405</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C402" s="6">
+        <v>6003184</v>
+      </c>
+      <c r="D402" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G402" s="5">
+        <v>210</v>
+      </c>
+      <c r="H402" s="5">
+        <v>210</v>
+      </c>
+      <c r="I402" s="5">
+        <v>205</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
       <c r="A403" s="7"/>
       <c r="B403" s="9"/>
       <c r="C403" s="7"/>
@@ -15534,7 +16782,7 @@
       <c r="I403" s="9"/>
       <c r="J403" s="9"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:11">
       <c r="A404" s="7"/>
       <c r="B404" s="9"/>
       <c r="C404" s="7"/>
@@ -15546,7 +16794,7 @@
       <c r="I404" s="9"/>
       <c r="J404" s="9"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:11">
       <c r="A405" s="7"/>
       <c r="B405" s="9"/>
       <c r="C405" s="7"/>
@@ -15558,7 +16806,7 @@
       <c r="I405" s="9"/>
       <c r="J405" s="9"/>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:11">
       <c r="A406" s="7"/>
       <c r="B406" s="9"/>
       <c r="C406" s="7"/>
@@ -15570,7 +16818,7 @@
       <c r="I406" s="9"/>
       <c r="J406" s="9"/>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:11">
       <c r="A407" s="7"/>
       <c r="B407" s="9"/>
       <c r="C407" s="7"/>
@@ -15582,7 +16830,7 @@
       <c r="I407" s="9"/>
       <c r="J407" s="9"/>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:11">
       <c r="A408" s="7"/>
       <c r="B408" s="9"/>
       <c r="C408" s="7"/>
@@ -15594,7 +16842,7 @@
       <c r="I408" s="9"/>
       <c r="J408" s="9"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:11">
       <c r="A409" s="7"/>
       <c r="B409" s="9"/>
       <c r="C409" s="7"/>
@@ -15606,7 +16854,7 @@
       <c r="I409" s="9"/>
       <c r="J409" s="9"/>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:11">
       <c r="A410" s="7"/>
       <c r="B410" s="9"/>
       <c r="C410" s="7"/>
@@ -15618,7 +16866,7 @@
       <c r="I410" s="9"/>
       <c r="J410" s="9"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:11">
       <c r="A411" s="7"/>
       <c r="B411" s="9"/>
       <c r="C411" s="7"/>
@@ -15630,7 +16878,7 @@
       <c r="I411" s="9"/>
       <c r="J411" s="9"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:11">
       <c r="A412" s="7"/>
       <c r="B412" s="9"/>
       <c r="C412" s="7"/>
@@ -15642,7 +16890,7 @@
       <c r="I412" s="9"/>
       <c r="J412" s="9"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:11">
       <c r="A413" s="7"/>
       <c r="B413" s="9"/>
       <c r="C413" s="7"/>
@@ -15654,7 +16902,7 @@
       <c r="I413" s="9"/>
       <c r="J413" s="9"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:11">
       <c r="A414" s="7"/>
       <c r="B414" s="9"/>
       <c r="C414" s="7"/>
@@ -15666,7 +16914,7 @@
       <c r="I414" s="9"/>
       <c r="J414" s="9"/>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:11">
       <c r="A415" s="7"/>
       <c r="B415" s="9"/>
       <c r="C415" s="7"/>
@@ -15678,7 +16926,7 @@
       <c r="I415" s="9"/>
       <c r="J415" s="9"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:11">
       <c r="A416" s="7"/>
       <c r="B416" s="9"/>
       <c r="C416" s="7"/>
@@ -19159,11 +20407,6 @@
       <c r="J705" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J401" xr:uid="{E7F1FE39-FFF1-4000-8792-2AC706B89B0E}">
-    <sortState ref="A2:J401">
-      <sortCondition ref="A1:A401"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="C706:C1048576 C1">
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
